--- a/products.xlsx
+++ b/products.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andyburnett/Library/Mobile Documents/com~apple~CloudDocs/Desktop/X_12.18.2024/Education/Graduate/USF Grad/Classes/SP25/ISM6137_StatsDM/GRP_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B9C62D4-9404-5845-A474-47F49F3752F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5A80AD-60AB-7B40-B868-2B24E3FE24F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21580" yWindow="6900" windowWidth="26840" windowHeight="15940" xr2:uid="{07C3AF9B-AF91-6940-81FA-1B94A97718FA}"/>
+    <workbookView xWindow="41200" yWindow="5980" windowWidth="26840" windowHeight="15940" xr2:uid="{07C3AF9B-AF91-6940-81FA-1B94A97718FA}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">products!$A$1:$F$1</definedName>
     <definedName name="prods">products!$A$1:$F$59</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -799,7 +800,7 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -2106,6 +2107,7 @@
       <c r="E75" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{3BCE46DF-33D7-314A-850C-4B46234A76B5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
